--- a/biology/Biologie cellulaire et moléculaire/Spermatogonie/Spermatogonie.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Spermatogonie/Spermatogonie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les spermatogonies  sont des cellules germinales situées en contact étroit avec la membrane basale du tube séminifère.
 </t>
@@ -511,7 +523,9 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Évolution : dans les testicules de l'embryon les cellules germinales primordiales se différencient en spermatogonies. Les spermatogonies restent inactives jusqu'à la puberté. En effet, pendant la vie fœtale jusqu'à la puberté, les spermatogonies sont bloquées par le MIS (Meiotic Inhibitor Substance) et n'entrent pas en méiose. Ensuite les spermatogonies subissent une succession de mitoses avant de se différencier en cellules productrices de spermatozoïdes.
 Il en existe trois sortes selon leur degré de différenciation ou de division :
@@ -545,7 +559,9 @@
           <t>Les spermatogonies dans la spermatogenèse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles interviennent dans la phase de multiplication qui est la première du mécanisme.
 Les spermatogonies Ad sont des cellules souches adultes unipotentes c'est-à-dire qu'elles s'auto-renouvellent via une division asymétrique.
